--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Tgfb2</t>
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H2">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I2">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J2">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N2">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O2">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P2">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q2">
-        <v>51.900333637852</v>
+        <v>73.56433859634666</v>
       </c>
       <c r="R2">
-        <v>467.1030027406679</v>
+        <v>662.07904736712</v>
       </c>
       <c r="S2">
-        <v>0.01796286008448942</v>
+        <v>0.01256691382694736</v>
       </c>
       <c r="T2">
-        <v>0.01796286008448942</v>
+        <v>0.01256691382694736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H3">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I3">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J3">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>187.398952</v>
       </c>
       <c r="O3">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P3">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q3">
-        <v>136.901306000368</v>
+        <v>160.1732158113245</v>
       </c>
       <c r="R3">
-        <v>1232.111754003312</v>
+        <v>1441.55894230192</v>
       </c>
       <c r="S3">
-        <v>0.04738194983923919</v>
+        <v>0.02736221162173163</v>
       </c>
       <c r="T3">
-        <v>0.04738194983923919</v>
+        <v>0.02736221162173163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H4">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I4">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J4">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N4">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O4">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P4">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q4">
-        <v>32.760171892896</v>
+        <v>73.14438669172</v>
       </c>
       <c r="R4">
-        <v>294.841547036064</v>
+        <v>658.29948022548</v>
       </c>
       <c r="S4">
-        <v>0.011338393085526</v>
+        <v>0.01249517391196133</v>
       </c>
       <c r="T4">
-        <v>0.011338393085526</v>
+        <v>0.01249517391196133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H5">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I5">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J5">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N5">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O5">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P5">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q5">
-        <v>0.181757589734</v>
+        <v>0.3933530873822222</v>
       </c>
       <c r="R5">
-        <v>1.635818307606</v>
+        <v>3.54017778644</v>
       </c>
       <c r="S5">
-        <v>6.290684326747222E-05</v>
+        <v>6.71960687340642E-05</v>
       </c>
       <c r="T5">
-        <v>6.290684326747222E-05</v>
+        <v>6.71960687340642E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I6">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J6">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N6">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O6">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P6">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q6">
-        <v>392.9893813099515</v>
+        <v>476.0972762758373</v>
       </c>
       <c r="R6">
-        <v>3536.904431789563</v>
+        <v>4284.875486482535</v>
       </c>
       <c r="S6">
-        <v>0.1360147955968493</v>
+        <v>0.08133116613788094</v>
       </c>
       <c r="T6">
-        <v>0.1360147955968492</v>
+        <v>0.08133116613788093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I7">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J7">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>187.398952</v>
       </c>
       <c r="O7">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P7">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q7">
         <v>1036.61683412322</v>
@@ -883,10 +883,10 @@
         <v>9329.551507108976</v>
       </c>
       <c r="S7">
-        <v>0.358776174398258</v>
+        <v>0.1770840963781388</v>
       </c>
       <c r="T7">
-        <v>0.358776174398258</v>
+        <v>0.1770840963781387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I8">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J8">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N8">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O8">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P8">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q8">
-        <v>248.0600562923413</v>
+        <v>473.3794110469159</v>
       </c>
       <c r="R8">
-        <v>2232.540506631072</v>
+        <v>4260.414699422243</v>
       </c>
       <c r="S8">
-        <v>0.0858543244600674</v>
+        <v>0.08086687625535345</v>
       </c>
       <c r="T8">
-        <v>0.08585432446006738</v>
+        <v>0.08086687625535342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I9">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J9">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N9">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O9">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P9">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q9">
-        <v>1.376268662093111</v>
+        <v>2.545721705525778</v>
       </c>
       <c r="R9">
-        <v>12.386417958838</v>
+        <v>22.911495349732</v>
       </c>
       <c r="S9">
-        <v>0.0004763306838901692</v>
+        <v>0.0004348827966261453</v>
       </c>
       <c r="T9">
-        <v>0.0004763306838901692</v>
+        <v>0.0004348827966261452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.770107666666666</v>
+        <v>29.664466</v>
       </c>
       <c r="H10">
-        <v>29.310323</v>
+        <v>88.993398</v>
       </c>
       <c r="I10">
-        <v>0.342132265008413</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="J10">
-        <v>0.3421322650084131</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N10">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O10">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P10">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q10">
-        <v>231.3704073904549</v>
+        <v>851.0594092541838</v>
       </c>
       <c r="R10">
-        <v>2082.333666514094</v>
+        <v>7659.534683287655</v>
       </c>
       <c r="S10">
-        <v>0.08007798725623114</v>
+        <v>0.1453855286648523</v>
       </c>
       <c r="T10">
-        <v>0.08007798725623115</v>
+        <v>0.1453855286648523</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.770107666666666</v>
+        <v>29.664466</v>
       </c>
       <c r="H11">
-        <v>29.310323</v>
+        <v>88.993398</v>
       </c>
       <c r="I11">
-        <v>0.342132265008413</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="J11">
-        <v>0.3421322650084131</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>187.398952</v>
       </c>
       <c r="O11">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P11">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q11">
-        <v>610.3026458868329</v>
+        <v>1853.029946679877</v>
       </c>
       <c r="R11">
-        <v>5492.723812981496</v>
+        <v>16677.2695201189</v>
       </c>
       <c r="S11">
-        <v>0.2112275638487126</v>
+        <v>0.3165510368611586</v>
       </c>
       <c r="T11">
-        <v>0.2112275638487126</v>
+        <v>0.3165510368611585</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.770107666666666</v>
+        <v>29.664466</v>
       </c>
       <c r="H12">
-        <v>29.310323</v>
+        <v>88.993398</v>
       </c>
       <c r="I12">
-        <v>0.342132265008413</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="J12">
-        <v>0.3421322650084131</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N12">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O12">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P12">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q12">
-        <v>146.0440383665013</v>
+        <v>846.201022341636</v>
       </c>
       <c r="R12">
-        <v>1314.396345298512</v>
+        <v>7615.809201074723</v>
       </c>
       <c r="S12">
-        <v>0.05054627674759281</v>
+        <v>0.144555575853029</v>
       </c>
       <c r="T12">
-        <v>0.05054627674759282</v>
+        <v>0.144555575853029</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29.664466</v>
+      </c>
+      <c r="H13">
+        <v>88.993398</v>
+      </c>
+      <c r="I13">
+        <v>0.6072695268303631</v>
+      </c>
+      <c r="J13">
+        <v>0.6072695268303631</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1534046666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.460214</v>
+      </c>
+      <c r="O13">
+        <v>0.001280132489737778</v>
+      </c>
+      <c r="P13">
+        <v>0.001280132489737778</v>
+      </c>
+      <c r="Q13">
+        <v>4.550667518574667</v>
+      </c>
+      <c r="R13">
+        <v>40.956007667172</v>
+      </c>
+      <c r="S13">
+        <v>0.0007773854513232349</v>
+      </c>
+      <c r="T13">
+        <v>0.0007773854513232349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.770107666666666</v>
-      </c>
-      <c r="H13">
-        <v>29.310323</v>
-      </c>
-      <c r="I13">
-        <v>0.342132265008413</v>
-      </c>
-      <c r="J13">
-        <v>0.3421322650084131</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.08293366666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.248801</v>
-      </c>
-      <c r="O13">
-        <v>0.0008196746830341778</v>
-      </c>
-      <c r="P13">
-        <v>0.0008196746830341778</v>
-      </c>
-      <c r="Q13">
-        <v>0.8102708525247778</v>
-      </c>
-      <c r="R13">
-        <v>7.292437672723</v>
-      </c>
-      <c r="S13">
-        <v>0.0002804371558765363</v>
-      </c>
-      <c r="T13">
-        <v>0.0002804371558765363</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.025497</v>
+      </c>
+      <c r="H14">
+        <v>0.076491</v>
+      </c>
+      <c r="I14">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J14">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>28.689524</v>
+      </c>
+      <c r="N14">
+        <v>86.06857199999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2394085694101769</v>
+      </c>
+      <c r="P14">
+        <v>0.2394085694101769</v>
+      </c>
+      <c r="Q14">
+        <v>0.7314967934279999</v>
+      </c>
+      <c r="R14">
+        <v>6.583471140852</v>
+      </c>
+      <c r="S14">
+        <v>0.0001249607804963602</v>
+      </c>
+      <c r="T14">
+        <v>0.0001249607804963602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.025497</v>
+      </c>
+      <c r="H15">
+        <v>0.076491</v>
+      </c>
+      <c r="I15">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J15">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>62.46631733333334</v>
+      </c>
+      <c r="N15">
+        <v>187.398952</v>
+      </c>
+      <c r="O15">
+        <v>0.5212694246546397</v>
+      </c>
+      <c r="P15">
+        <v>0.5212694246546395</v>
+      </c>
+      <c r="Q15">
+        <v>1.592703693048</v>
+      </c>
+      <c r="R15">
+        <v>14.334333237432</v>
+      </c>
+      <c r="S15">
+        <v>0.0002720797936106102</v>
+      </c>
+      <c r="T15">
+        <v>0.0002720797936106101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.025497</v>
+      </c>
+      <c r="H16">
+        <v>0.076491</v>
+      </c>
+      <c r="I16">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J16">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>28.525746</v>
+      </c>
+      <c r="N16">
+        <v>85.57723799999999</v>
+      </c>
+      <c r="O16">
+        <v>0.2380418734454457</v>
+      </c>
+      <c r="P16">
+        <v>0.2380418734454457</v>
+      </c>
+      <c r="Q16">
+        <v>0.727320945762</v>
+      </c>
+      <c r="R16">
+        <v>6.545888511858</v>
+      </c>
+      <c r="S16">
+        <v>0.0001242474251019614</v>
+      </c>
+      <c r="T16">
+        <v>0.0001242474251019614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.025497</v>
+      </c>
+      <c r="H17">
+        <v>0.076491</v>
+      </c>
+      <c r="I17">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J17">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1534046666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.460214</v>
+      </c>
+      <c r="O17">
+        <v>0.001280132489737778</v>
+      </c>
+      <c r="P17">
+        <v>0.001280132489737778</v>
+      </c>
+      <c r="Q17">
+        <v>0.003911358786000001</v>
+      </c>
+      <c r="R17">
+        <v>0.035202229074</v>
+      </c>
+      <c r="S17">
+        <v>6.681730543333738E-07</v>
+      </c>
+      <c r="T17">
+        <v>6.681730543333738E-07</v>
       </c>
     </row>
   </sheetData>
